--- a/Input.xlsx
+++ b/Input.xlsx
@@ -14,27 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>Desktop^https://www3.lenovo.com/ca/en/desktops-and-all-in-ones/c/DESKTOPS?q=%3Aprice-asc%3AfacetSys-Processor%3AIntel%C2%AE+Core%E2%84%A2+i3&amp;page=0&amp;</t>
+    <t>Notebook^http://www.pcexpansion.es/portatiles_hp.php?rgi=0&amp;</t>
   </si>
   <si>
-    <t>Desktop^https://www3.lenovo.com/ca/en/desktops-and-all-in-ones/c/DESKTOPS?q=%3Aprice-asc%3AfacetSys-Processor%3AIntel%C2%AE+Core%E2%84%A2+i5&amp;page=0&amp;</t>
+    <t>Notebook^http://www.pcexpansion.es/portatiles_netbook.php?rgi=0&amp;</t>
   </si>
   <si>
-    <t>Desktop^https://www3.lenovo.com/ca/en/desktops-and-all-in-ones/c/DESKTOPS?q=%3Aprice-asc%3AfacetSys-Processor%3AIntel%C2%AE+Core%E2%84%A2+i7&amp;page=0&amp;</t>
+    <t>Notebook^http://www.pcexpansion.es/portatiles_toshiba.php?rgi=0&amp;</t>
   </si>
   <si>
-    <t>Desktop^https://www3.lenovo.com/ca/en/desktops-and-all-in-ones/c/DESKTOPS?q=%3Aprice-asc%3AfacetSys-Processor%3AIntel%C2%AE+Pentium%E2%84%A2&amp;page=0&amp;</t>
+    <t>Notebook^http://www.pcexpansion.es/ofertas_portatil_fujitsu.php?rgi=0&amp;</t>
   </si>
   <si>
-    <t>Graphic Card^https://www3.lenovo.com/ca/en/accessories-and-monitors/graphic-cards/graphic-cards/c/Graphic%20Cards_Graphic%20Cards?q=%3Aprice-asc&amp;page=0&amp;</t>
-  </si>
-  <si>
-    <t>Processor^https://www3.lenovo.com/ca/en/accessories-and-monitors/thinkcentre-and-thinkstation/processors-and-cpus/c/ThinkCentre-and-ThinkStation-processors-and-CPUs?q=%3Aprice-asc&amp;page=0&amp;</t>
+    <t>Notebook^http://www.pcexpansion.es/ofertas_portatil_msi.php?rgi=0&amp;</t>
   </si>
 </sst>
 </file>
@@ -866,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,11 +901,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
